--- a/喏喏码使用说明书.xlsx
+++ b/喏喏码使用说明书.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="21000" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="图表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="860">
   <si>
     <t xml:space="preserve">喏喏码说明书 </t>
   </si>
@@ -22,9 +23,6 @@
     <t>思思如矢</t>
   </si>
   <si>
-    <t>1，无理先行，理论上第一码不允许无理，应该只有一个曰取 mri</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -58,15 +56,9 @@
     <t>日</t>
   </si>
   <si>
-    <t>rz</t>
-  </si>
-  <si>
     <t>爱</t>
   </si>
   <si>
-    <t>rm</t>
-  </si>
-  <si>
     <t>1码声母</t>
   </si>
   <si>
@@ -91,13 +83,7 @@
     <t>哪</t>
   </si>
   <si>
-    <t>nj</t>
-  </si>
-  <si>
     <t>于</t>
-  </si>
-  <si>
-    <t>w/</t>
   </si>
   <si>
     <t>2码字根</t>
@@ -111,6 +97,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,6 +108,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,6 +127,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -149,6 +138,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -174,15 +164,9 @@
     <t>然</t>
   </si>
   <si>
-    <t>rj</t>
-  </si>
-  <si>
     <t>白</t>
   </si>
   <si>
-    <t>bg</t>
-  </si>
-  <si>
     <t>冖宀</t>
   </si>
   <si>
@@ -192,27 +176,9 @@
     <t>撇</t>
   </si>
   <si>
-    <t>矢</t>
-  </si>
-  <si>
-    <t>存</t>
-  </si>
-  <si>
-    <t>kva</t>
-  </si>
-  <si>
-    <t>失</t>
-  </si>
-  <si>
-    <t>sfu</t>
-  </si>
-  <si>
     <t>敢</t>
   </si>
   <si>
-    <t>ga</t>
-  </si>
-  <si>
     <t>从音根q</t>
   </si>
   <si>
@@ -237,21 +203,9 @@
     <t>从音p</t>
   </si>
   <si>
-    <t>夫</t>
-  </si>
-  <si>
-    <t>fti</t>
-  </si>
-  <si>
     <t>感</t>
   </si>
   <si>
-    <t>ge</t>
-  </si>
-  <si>
-    <t>后取笔画</t>
-  </si>
-  <si>
     <t>横</t>
   </si>
   <si>
@@ -264,9 +218,6 @@
     <t>士</t>
   </si>
   <si>
-    <t>sj</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -300,9 +251,6 @@
     <t>土</t>
   </si>
   <si>
-    <t>tj</t>
-  </si>
-  <si>
     <t>sh</t>
   </si>
   <si>
@@ -327,9 +275,6 @@
     <t>l</t>
   </si>
   <si>
-    <t>gj</t>
-  </si>
-  <si>
     <t>氵</t>
   </si>
   <si>
@@ -357,9 +302,6 @@
     <t>王</t>
   </si>
   <si>
-    <t>wj</t>
-  </si>
-  <si>
     <t>纟厶</t>
   </si>
   <si>
@@ -372,18 +314,9 @@
     <t>心底</t>
   </si>
   <si>
-    <t>惑</t>
-  </si>
-  <si>
-    <t>h;o</t>
-  </si>
-  <si>
     <t>字</t>
   </si>
   <si>
-    <t>f/</t>
-  </si>
-  <si>
     <t>从音s</t>
   </si>
   <si>
@@ -411,9 +344,6 @@
     <t>思</t>
   </si>
   <si>
-    <t>nx</t>
-  </si>
-  <si>
     <t>折</t>
   </si>
   <si>
@@ -423,9 +353,6 @@
     <t>全</t>
   </si>
   <si>
-    <t>qc</t>
-  </si>
-  <si>
     <t>Z</t>
   </si>
   <si>
@@ -459,9 +386,6 @@
     <t>真</t>
   </si>
   <si>
-    <t>zn</t>
-  </si>
-  <si>
     <t>zh</t>
   </si>
   <si>
@@ -507,12 +431,6 @@
     <t>木</t>
   </si>
   <si>
-    <t>1，图中标红的为重根字，重根先取</t>
-  </si>
-  <si>
-    <t>上下结构先取上面认识的。左右结构，左边的是字吗？右边的是字吗？左上是字吗？右下是字吗？都不是字取笔画</t>
-  </si>
-  <si>
     <t>隹丬</t>
   </si>
   <si>
@@ -540,9 +458,6 @@
     <t>2个韵母或yi,yu</t>
   </si>
   <si>
-    <t>3标红的为异根字，即瘦码之绑定的字根。</t>
-  </si>
-  <si>
     <t>hspdv</t>
   </si>
   <si>
@@ -586,9 +501,6 @@
   </si>
   <si>
     <t>栽去木</t>
-  </si>
-  <si>
-    <t>恣</t>
   </si>
   <si>
     <t>f声母z在f上</t>
@@ -719,13 +631,2093 @@
   <si>
     <t>如何打单字？如“好”这个字，先取声母h，然后取部首“女”，女的拼音是“nv”，第二码取女的声母n，所以好的编码就是“hn”。</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>悲</t>
+  </si>
+  <si>
+    <t>波</t>
+  </si>
+  <si>
+    <t>并</t>
+  </si>
+  <si>
+    <t>薄</t>
+  </si>
+  <si>
+    <t>必</t>
+  </si>
+  <si>
+    <t>部</t>
+  </si>
+  <si>
+    <t>报</t>
+  </si>
+  <si>
+    <t>比</t>
+  </si>
+  <si>
+    <t>彼</t>
+  </si>
+  <si>
+    <t>帮</t>
+  </si>
+  <si>
+    <t>吧</t>
+  </si>
+  <si>
+    <t>别</t>
+  </si>
+  <si>
+    <t>闭</t>
+  </si>
+  <si>
+    <t>抱</t>
+  </si>
+  <si>
+    <t>暴</t>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>便</t>
+  </si>
+  <si>
+    <t>编</t>
+  </si>
+  <si>
+    <t>宝</t>
+  </si>
+  <si>
+    <t>布</t>
+  </si>
+  <si>
+    <t>步</t>
+  </si>
+  <si>
+    <t>备</t>
+  </si>
+  <si>
+    <t>把</t>
+  </si>
+  <si>
+    <t>变</t>
+  </si>
+  <si>
+    <t>边</t>
+  </si>
+  <si>
+    <t>重</t>
+  </si>
+  <si>
+    <t>抽</t>
+  </si>
+  <si>
+    <t>查</t>
+  </si>
+  <si>
+    <t>叉</t>
+  </si>
+  <si>
+    <t>沉</t>
+  </si>
+  <si>
+    <t>痴</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>冲</t>
+  </si>
+  <si>
+    <t>除</t>
+  </si>
+  <si>
+    <t>持</t>
+  </si>
+  <si>
+    <t>成</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>触</t>
+  </si>
+  <si>
+    <t>吹</t>
+  </si>
+  <si>
+    <t>楚</t>
+  </si>
+  <si>
+    <t>盛</t>
+  </si>
+  <si>
+    <t>察</t>
+  </si>
+  <si>
+    <t>晨</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>乘</t>
+  </si>
+  <si>
+    <t>传</t>
+  </si>
+  <si>
+    <t>纯</t>
+  </si>
+  <si>
+    <t>场</t>
+  </si>
+  <si>
+    <t>穿</t>
+  </si>
+  <si>
+    <t>承</t>
+  </si>
+  <si>
+    <t>处</t>
+  </si>
+  <si>
+    <t>常</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>超</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>斗</t>
+  </si>
+  <si>
+    <t>定</t>
+  </si>
+  <si>
+    <t>对</t>
+  </si>
+  <si>
+    <t>淡</t>
+  </si>
+  <si>
+    <t>单</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>登</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>得</t>
+  </si>
+  <si>
+    <t>调</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>到</t>
+  </si>
+  <si>
+    <t>带</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
+    <t>胆</t>
+  </si>
+  <si>
+    <t>丹</t>
+  </si>
+  <si>
+    <t>独</t>
+  </si>
+  <si>
+    <t>但</t>
+  </si>
+  <si>
+    <t>地</t>
+  </si>
+  <si>
+    <t>段</t>
+  </si>
+  <si>
+    <t>等</t>
+  </si>
+  <si>
+    <t>帝</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>动</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>发</t>
+  </si>
+  <si>
+    <t>做</t>
+  </si>
+  <si>
+    <t>怎</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>付</t>
+  </si>
+  <si>
+    <t>负</t>
+  </si>
+  <si>
+    <t>族</t>
+  </si>
+  <si>
+    <t>择</t>
+  </si>
+  <si>
+    <t>复</t>
+  </si>
+  <si>
+    <t>再</t>
+  </si>
+  <si>
+    <t>走</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>则</t>
+  </si>
+  <si>
+    <t>坐</t>
+  </si>
+  <si>
+    <t>妇</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>自</t>
+  </si>
+  <si>
+    <t>犯</t>
+  </si>
+  <si>
+    <t>作</t>
+  </si>
+  <si>
+    <t>非</t>
+  </si>
+  <si>
+    <t>增</t>
+  </si>
+  <si>
+    <t>饭</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>放</t>
+  </si>
+  <si>
+    <t>访</t>
+  </si>
+  <si>
+    <t>造</t>
+  </si>
+  <si>
+    <t>歌</t>
+  </si>
+  <si>
+    <t>改</t>
+  </si>
+  <si>
+    <t>格</t>
+  </si>
+  <si>
+    <t>观</t>
+  </si>
+  <si>
+    <t>公</t>
+  </si>
+  <si>
+    <t>共</t>
+  </si>
+  <si>
+    <t>广</t>
+  </si>
+  <si>
+    <t>挂</t>
+  </si>
+  <si>
+    <t>功</t>
+  </si>
+  <si>
+    <t>工</t>
+  </si>
+  <si>
+    <t>果</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
+    <t>哥</t>
+  </si>
+  <si>
+    <t>刚</t>
+  </si>
+  <si>
+    <t>盖</t>
+  </si>
+  <si>
+    <t>告</t>
+  </si>
+  <si>
+    <t>股</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>供</t>
+  </si>
+  <si>
+    <t>给</t>
+  </si>
+  <si>
+    <t>官</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>管</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>该</t>
+  </si>
+  <si>
+    <t>过</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>混</t>
+  </si>
+  <si>
+    <t>欢</t>
+  </si>
+  <si>
+    <t>活</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>会</t>
+  </si>
+  <si>
+    <t>护</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>华</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>划</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>乎</t>
+  </si>
+  <si>
+    <t>回</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>害</t>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>后</t>
+  </si>
+  <si>
+    <t>环</t>
+  </si>
+  <si>
+    <t>怀</t>
+  </si>
+  <si>
+    <t>话</t>
+  </si>
+  <si>
+    <t>还</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>杰</t>
+  </si>
+  <si>
+    <t>艰</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>句</t>
+  </si>
+  <si>
+    <t>节</t>
+  </si>
+  <si>
+    <t>决</t>
+  </si>
+  <si>
+    <t>阶</t>
+  </si>
+  <si>
+    <t>接</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>静</t>
+  </si>
+  <si>
+    <t>假</t>
+  </si>
+  <si>
+    <t>解</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>间</t>
+  </si>
+  <si>
+    <t>姐</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>尽</t>
+  </si>
+  <si>
+    <t>见</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>经</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>军</t>
+  </si>
+  <si>
+    <t>将</t>
+  </si>
+  <si>
+    <t>教</t>
+  </si>
+  <si>
+    <t>觉</t>
+  </si>
+  <si>
+    <t>讲</t>
+  </si>
+  <si>
+    <t>进</t>
+  </si>
+  <si>
+    <t>控</t>
+  </si>
+  <si>
+    <t>才</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>彩</t>
+  </si>
+  <si>
+    <t>测</t>
+  </si>
+  <si>
+    <t>曾</t>
+  </si>
+  <si>
+    <t>苦</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>摧</t>
+  </si>
+  <si>
+    <t>从</t>
+  </si>
+  <si>
+    <t>开</t>
+  </si>
+  <si>
+    <t>藏</t>
+  </si>
+  <si>
+    <t>错</t>
+  </si>
+  <si>
+    <t>哭</t>
+  </si>
+  <si>
+    <t>刻</t>
+  </si>
+  <si>
+    <t>粗</t>
+  </si>
+  <si>
+    <t>靠</t>
+  </si>
+  <si>
+    <t>菜</t>
+  </si>
+  <si>
+    <t>层</t>
+  </si>
+  <si>
+    <t>困</t>
+  </si>
+  <si>
+    <t>侧</t>
+  </si>
+  <si>
+    <t>客</t>
+  </si>
+  <si>
+    <t>看</t>
+  </si>
+  <si>
+    <t>此</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>快</t>
+  </si>
+  <si>
+    <t>词</t>
+  </si>
+  <si>
+    <t>孔</t>
+  </si>
+  <si>
+    <t>拉</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>雷</t>
+  </si>
+  <si>
+    <t>流</t>
+  </si>
+  <si>
+    <t>兰</t>
+  </si>
+  <si>
+    <t>落</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>联</t>
+  </si>
+  <si>
+    <t>领</t>
+  </si>
+  <si>
+    <t>临</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>律</t>
+  </si>
+  <si>
+    <t>两</t>
+  </si>
+  <si>
+    <t>另</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>类</t>
+  </si>
+  <si>
+    <t>旅</t>
+  </si>
+  <si>
+    <t>脸</t>
+  </si>
+  <si>
+    <t>乐</t>
+  </si>
+  <si>
+    <t>罗</t>
+  </si>
+  <si>
+    <t>伦</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>乱</t>
+  </si>
+  <si>
+    <t>邻</t>
+  </si>
+  <si>
+    <t>亮</t>
+  </si>
+  <si>
+    <t>怜</t>
+  </si>
+  <si>
+    <t>论</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>民</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>模</t>
+  </si>
+  <si>
+    <t>眉</t>
+  </si>
+  <si>
+    <t>满</t>
+  </si>
+  <si>
+    <t>美</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>陌</t>
+  </si>
+  <si>
+    <t>摸</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>码</t>
+  </si>
+  <si>
+    <t>茫</t>
+  </si>
+  <si>
+    <t>吗</t>
+  </si>
+  <si>
+    <t>梦</t>
+  </si>
+  <si>
+    <t>瞒</t>
+  </si>
+  <si>
+    <t>妈</t>
+  </si>
+  <si>
+    <t>明</t>
+  </si>
+  <si>
+    <t>么</t>
+  </si>
+  <si>
+    <t>猛</t>
+  </si>
+  <si>
+    <t>们</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>密</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>敏</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>迷</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>松</t>
+  </si>
+  <si>
+    <t>难</t>
+  </si>
+  <si>
+    <t>浓</t>
+  </si>
+  <si>
+    <t>司</t>
+  </si>
+  <si>
+    <t>苏</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>那</t>
+  </si>
+  <si>
+    <t>扫</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>死</t>
+  </si>
+  <si>
+    <t>孙</t>
+  </si>
+  <si>
+    <t>呢</t>
+  </si>
+  <si>
+    <t>散</t>
+  </si>
+  <si>
+    <t>闹</t>
+  </si>
+  <si>
+    <t>娘</t>
+  </si>
+  <si>
+    <t>脑</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>斯</t>
+  </si>
+  <si>
+    <t>似</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>宁</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>弄</t>
+  </si>
+  <si>
+    <t>诉</t>
+  </si>
+  <si>
+    <t>送</t>
+  </si>
+  <si>
+    <t>飘</t>
+  </si>
+  <si>
+    <t>拼</t>
+  </si>
+  <si>
+    <t>朴</t>
+  </si>
+  <si>
+    <t>配</t>
+  </si>
+  <si>
+    <t>派</t>
+  </si>
+  <si>
+    <t>普</t>
+  </si>
+  <si>
+    <t>蓬</t>
+  </si>
+  <si>
+    <t>劈</t>
+  </si>
+  <si>
+    <t>陪</t>
+  </si>
+  <si>
+    <t>排</t>
+  </si>
+  <si>
+    <t>爬</t>
+  </si>
+  <si>
+    <t>炮</t>
+  </si>
+  <si>
+    <t>徘</t>
+  </si>
+  <si>
+    <t>凭</t>
+  </si>
+  <si>
+    <t>品</t>
+  </si>
+  <si>
+    <t>判</t>
+  </si>
+  <si>
+    <t>盘</t>
+  </si>
+  <si>
+    <t>婆</t>
+  </si>
+  <si>
+    <t>朋</t>
+  </si>
+  <si>
+    <t>片</t>
+  </si>
+  <si>
+    <t>匹</t>
+  </si>
+  <si>
+    <t>偏</t>
+  </si>
+  <si>
+    <t>烹</t>
+  </si>
+  <si>
+    <t>培</t>
+  </si>
+  <si>
+    <t>破</t>
+  </si>
+  <si>
+    <t>皮</t>
+  </si>
+  <si>
+    <t>旁</t>
+  </si>
+  <si>
+    <t>怕</t>
+  </si>
+  <si>
+    <t>评</t>
+  </si>
+  <si>
+    <t>跑</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>清</t>
+  </si>
+  <si>
+    <t>权</t>
+  </si>
+  <si>
+    <t>劝</t>
+  </si>
+  <si>
+    <t>浅</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>奇</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>抢</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
+    <t>求</t>
+  </si>
+  <si>
+    <t>气</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>器</t>
+  </si>
+  <si>
+    <t>亲</t>
+  </si>
+  <si>
+    <t>骑</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>晴</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>倾</t>
+  </si>
+  <si>
+    <t>且</t>
+  </si>
+  <si>
+    <t>切</t>
+  </si>
+  <si>
+    <t>确</t>
+  </si>
+  <si>
+    <t>签</t>
+  </si>
+  <si>
+    <t>球</t>
+  </si>
+  <si>
+    <t>情</t>
+  </si>
+  <si>
+    <t>请</t>
+  </si>
+  <si>
+    <t>起</t>
+  </si>
+  <si>
+    <t>入</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>染</t>
+  </si>
+  <si>
+    <t>恩</t>
+  </si>
+  <si>
+    <t>润</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>若</t>
+  </si>
+  <si>
+    <t>尔</t>
+  </si>
+  <si>
+    <t>阿</t>
+  </si>
+  <si>
+    <t>按</t>
+  </si>
+  <si>
+    <t>弱</t>
+  </si>
+  <si>
+    <t>而</t>
+  </si>
+  <si>
+    <t>融</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>软</t>
+  </si>
+  <si>
+    <t>如</t>
+  </si>
+  <si>
+    <t>暗</t>
+  </si>
+  <si>
+    <t>儿</t>
+  </si>
+  <si>
+    <t>欧</t>
+  </si>
+  <si>
+    <t>任</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t>安</t>
+  </si>
+  <si>
+    <t>认</t>
+  </si>
+  <si>
+    <t>案</t>
+  </si>
+  <si>
+    <t>瑞</t>
+  </si>
+  <si>
+    <t>容</t>
+  </si>
+  <si>
+    <t>让</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>术</t>
+  </si>
+  <si>
+    <t>双</t>
+  </si>
+  <si>
+    <t>深</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>升</t>
+  </si>
+  <si>
+    <t>受</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>授</t>
+  </si>
+  <si>
+    <t>师</t>
+  </si>
+  <si>
+    <t>事</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>社</t>
+  </si>
+  <si>
+    <t>输</t>
+  </si>
+  <si>
+    <t>闪</t>
+  </si>
+  <si>
+    <t>始</t>
+  </si>
+  <si>
+    <t>时</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>甚</t>
+  </si>
+  <si>
+    <t>使</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>声</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>说</t>
+  </si>
+  <si>
+    <t>适</t>
+  </si>
+  <si>
+    <t>提</t>
+  </si>
+  <si>
+    <t>投</t>
+  </si>
+  <si>
+    <t>跳</t>
+  </si>
+  <si>
+    <t>态</t>
+  </si>
+  <si>
+    <t>汤</t>
+  </si>
+  <si>
+    <t>痛</t>
+  </si>
+  <si>
+    <t>托</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>填</t>
+  </si>
+  <si>
+    <t>推</t>
+  </si>
+  <si>
+    <t>唐</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>厅</t>
+  </si>
+  <si>
+    <t>听</t>
+  </si>
+  <si>
+    <t>童</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>她</t>
+  </si>
+  <si>
+    <t>脱</t>
+  </si>
+  <si>
+    <t>太</t>
+  </si>
+  <si>
+    <t>同</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>统</t>
+  </si>
+  <si>
+    <t>它</t>
+  </si>
+  <si>
+    <t>躺</t>
+  </si>
+  <si>
+    <t>透</t>
+  </si>
+  <si>
+    <t>条</t>
+  </si>
+  <si>
+    <t>突</t>
+  </si>
+  <si>
+    <t>题</t>
+  </si>
+  <si>
+    <t>通</t>
+  </si>
+  <si>
+    <t>几</t>
+  </si>
+  <si>
+    <t>已</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>意</t>
+  </si>
+  <si>
+    <t>济</t>
+  </si>
+  <si>
+    <t>疑</t>
+  </si>
+  <si>
+    <t>艺</t>
+  </si>
+  <si>
+    <t>义</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>技</t>
+  </si>
+  <si>
+    <t>既</t>
+  </si>
+  <si>
+    <t>击</t>
+  </si>
+  <si>
+    <t>历</t>
+  </si>
+  <si>
+    <t>计</t>
+  </si>
+  <si>
+    <t>亿</t>
+  </si>
+  <si>
+    <t>利</t>
+  </si>
+  <si>
+    <t>益</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>易</t>
+  </si>
+  <si>
+    <t>及</t>
+  </si>
+  <si>
+    <t>基</t>
+  </si>
+  <si>
+    <t>依</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>吉</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>理</t>
+  </si>
+  <si>
+    <t>忆</t>
+  </si>
+  <si>
+    <t>记</t>
+  </si>
+  <si>
+    <t>迹</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>忘</t>
+  </si>
+  <si>
+    <t>温</t>
+  </si>
+  <si>
+    <t>勿</t>
+  </si>
+  <si>
+    <t>务</t>
+  </si>
+  <si>
+    <t>危</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>握</t>
+  </si>
+  <si>
+    <t>武</t>
+  </si>
+  <si>
+    <t>与</t>
+  </si>
+  <si>
+    <t>往</t>
+  </si>
+  <si>
+    <t>味</t>
+  </si>
+  <si>
+    <t>为</t>
+  </si>
+  <si>
+    <t>问</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t>网</t>
+  </si>
+  <si>
+    <t>位</t>
+  </si>
+  <si>
+    <t>维</t>
+  </si>
+  <si>
+    <t>完</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>卫</t>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>语</t>
+  </si>
+  <si>
+    <t>遇</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>需</t>
+  </si>
+  <si>
+    <t>相</t>
+  </si>
+  <si>
+    <t>些</t>
+  </si>
+  <si>
+    <t>消</t>
+  </si>
+  <si>
+    <t>贤</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>心</t>
+  </si>
+  <si>
+    <t>险</t>
+  </si>
+  <si>
+    <t>息</t>
+  </si>
+  <si>
+    <t>戏</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>销</t>
+  </si>
+  <si>
+    <t>形</t>
+  </si>
+  <si>
+    <t>辛</t>
+  </si>
+  <si>
+    <t>闲</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>向</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>信</t>
+  </si>
+  <si>
+    <t>喜</t>
+  </si>
+  <si>
+    <t>学</t>
+  </si>
+  <si>
+    <t>笑</t>
+  </si>
+  <si>
+    <t>现</t>
+  </si>
+  <si>
+    <t>兴</t>
+  </si>
+  <si>
+    <t>许</t>
+  </si>
+  <si>
+    <t>选</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>又</t>
+  </si>
+  <si>
+    <t>样</t>
+  </si>
+  <si>
+    <t>愿</t>
+  </si>
+  <si>
+    <t>游</t>
+  </si>
+  <si>
+    <t>养</t>
+  </si>
+  <si>
+    <t>英</t>
+  </si>
+  <si>
+    <t>永</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>摇</t>
+  </si>
+  <si>
+    <t>应</t>
+  </si>
+  <si>
+    <t>亚</t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>影</t>
+  </si>
+  <si>
+    <t>员</t>
+  </si>
+  <si>
+    <t>音</t>
+  </si>
+  <si>
+    <t>眼</t>
+  </si>
+  <si>
+    <t>隐</t>
+  </si>
+  <si>
+    <t>腰</t>
+  </si>
+  <si>
+    <t>用</t>
+  </si>
+  <si>
+    <t>因</t>
+  </si>
+  <si>
+    <t>优</t>
+  </si>
+  <si>
+    <t>由</t>
+  </si>
+  <si>
+    <t>印</t>
+  </si>
+  <si>
+    <t>友</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>言</t>
+  </si>
+  <si>
+    <t>要</t>
+  </si>
+  <si>
+    <t>严</t>
+  </si>
+  <si>
+    <t>远</t>
+  </si>
+  <si>
+    <t>执</t>
+  </si>
+  <si>
+    <t>桌</t>
+  </si>
+  <si>
+    <t>志</t>
+  </si>
+  <si>
+    <t>注</t>
+  </si>
+  <si>
+    <t>准</t>
+  </si>
+  <si>
+    <t>著</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>阵</t>
+  </si>
+  <si>
+    <t>指</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>种</t>
+  </si>
+  <si>
+    <t>征</t>
+  </si>
+  <si>
+    <t>钟</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>者</t>
+  </si>
+  <si>
+    <t>制</t>
+  </si>
+  <si>
+    <t>主</t>
+  </si>
+  <si>
+    <t>展</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>住</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>直</t>
+  </si>
+  <si>
+    <t>知</t>
+  </si>
+  <si>
+    <t>整</t>
+  </si>
+  <si>
+    <t>政</t>
+  </si>
+  <si>
+    <t>掌</t>
+  </si>
+  <si>
+    <t>着</t>
+  </si>
+  <si>
+    <t>追</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>o勇</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>z</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，无理先行，理论上第一码不允许无理，右表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，重（zhòng）根先取，图中标红的为重根字，重根先取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5，正常取根</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右结构，左边的是字吗？右边的是字吗？左上是字吗？右下是字吗？都不是字取笔画</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下结构先取上面认识的。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恣</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，标红的为异根字，即瘦码之绑定的字根。取不是异根的部分</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>弊</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~5取笔画</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -737,6 +2729,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -744,6 +2737,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -752,6 +2746,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -759,6 +2754,7 @@
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -766,17 +2762,31 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +2817,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -820,7 +2842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -832,14 +2854,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1112,18 +3136,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="20" max="49" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1133,167 +3159,600 @@
       <c r="E1">
         <v>190420</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="T1" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="9"/>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="S2" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="T2" t="s">
+        <v>191</v>
+      </c>
+      <c r="U2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V2" t="s">
+        <v>193</v>
+      </c>
+      <c r="W2" t="s">
+        <v>194</v>
+      </c>
+      <c r="X2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK2" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="10" t="s">
+    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="T3" t="s">
+        <v>220</v>
+      </c>
+      <c r="U3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V3" t="s">
+        <v>222</v>
+      </c>
+      <c r="W3" t="s">
+        <v>223</v>
+      </c>
+      <c r="X3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>238</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="T4" t="s">
+        <v>249</v>
+      </c>
+      <c r="U4" t="s">
+        <v>250</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="W4" t="s">
+        <v>252</v>
+      </c>
+      <c r="X4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z4" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>277</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>802</v>
+      </c>
+      <c r="T5" t="s">
+        <v>278</v>
+      </c>
+      <c r="U5" t="s">
+        <v>279</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>280</v>
+      </c>
+      <c r="X5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z5" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF5" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ5" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU5" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
@@ -1303,225 +3762,851 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="N6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>52</v>
+      <c r="N6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="T6" t="s">
+        <v>307</v>
+      </c>
+      <c r="U6" t="s">
+        <v>308</v>
+      </c>
+      <c r="V6" t="s">
+        <v>309</v>
+      </c>
+      <c r="W6" t="s">
+        <v>310</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF6" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="S7" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="T7" t="s">
+        <v>335</v>
+      </c>
+      <c r="U7" t="s">
+        <v>336</v>
+      </c>
+      <c r="V7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W7" t="s">
+        <v>337</v>
+      </c>
+      <c r="X7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB7" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG7" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL7" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="S8" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="T8" t="s">
+        <v>364</v>
+      </c>
+      <c r="U8" t="s">
+        <v>365</v>
+      </c>
+      <c r="V8" t="s">
+        <v>366</v>
+      </c>
+      <c r="W8" t="s">
+        <v>367</v>
+      </c>
+      <c r="X8" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE8" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>381</v>
+      </c>
+      <c r="AL8" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>384</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR8" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>390</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>391</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="K9" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="L9" t="s">
         <v>62</v>
       </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="N9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="T9" t="s">
+        <v>394</v>
+      </c>
+      <c r="U9" t="s">
+        <v>395</v>
+      </c>
+      <c r="V9" t="s">
+        <v>396</v>
+      </c>
+      <c r="W9" t="s">
+        <v>397</v>
+      </c>
+      <c r="X9" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB9" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF9" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>408</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>409</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>410</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL9" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>413</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>416</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>417</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>418</v>
+      </c>
+      <c r="AT9" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="T10" t="s">
+        <v>423</v>
+      </c>
+      <c r="U10" t="s">
+        <v>424</v>
+      </c>
+      <c r="V10" t="s">
+        <v>425</v>
+      </c>
+      <c r="W10" t="s">
+        <v>426</v>
+      </c>
+      <c r="X10" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>430</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>431</v>
+      </c>
+      <c r="AC10" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>437</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>438</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>441</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>446</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>447</v>
+      </c>
+      <c r="AS10" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>450</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>451</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="11" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>101</v>
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="T11" t="s">
+        <v>453</v>
+      </c>
+      <c r="U11" t="s">
+        <v>454</v>
+      </c>
+      <c r="V11" t="s">
+        <v>455</v>
+      </c>
+      <c r="W11" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="X11" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>459</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>463</v>
+      </c>
+      <c r="AF11" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG11" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>467</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>471</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>472</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>473</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>476</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>477</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>479</v>
+      </c>
+      <c r="AV11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="14" t="s">
-        <v>104</v>
+      <c r="K12" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="T12" t="s">
+        <v>481</v>
+      </c>
+      <c r="U12" t="s">
+        <v>482</v>
+      </c>
+      <c r="V12" t="s">
+        <v>483</v>
+      </c>
+      <c r="W12" t="s">
+        <v>484</v>
+      </c>
+      <c r="X12" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD12" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF12" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI12" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>496</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>497</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>499</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>500</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>501</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>502</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AU12" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>507</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>508</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1529,166 +4614,713 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="N13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>109</v>
+      <c r="N13" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="S13" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="T13" t="s">
+        <v>509</v>
+      </c>
+      <c r="U13" t="s">
+        <v>510</v>
+      </c>
+      <c r="V13" t="s">
+        <v>511</v>
+      </c>
+      <c r="W13" t="s">
+        <v>512</v>
+      </c>
+      <c r="X13" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>517</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG13" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>523</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>524</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>525</v>
+      </c>
+      <c r="AK13" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>528</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>529</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>530</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>531</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>532</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>533</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>534</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>535</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>537</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="S14" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="T14" t="s">
+        <v>539</v>
+      </c>
+      <c r="U14" t="s">
+        <v>540</v>
+      </c>
+      <c r="V14" t="s">
+        <v>541</v>
+      </c>
+      <c r="W14" t="s">
+        <v>542</v>
+      </c>
+      <c r="X14" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>544</v>
+      </c>
+      <c r="Z14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>545</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>547</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>548</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF14" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>551</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>552</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>554</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>558</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>559</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>560</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>561</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>562</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>563</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>564</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="S15" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="T15" t="s">
+        <v>568</v>
+      </c>
+      <c r="U15" t="s">
+        <v>569</v>
+      </c>
+      <c r="V15" t="s">
+        <v>570</v>
+      </c>
+      <c r="W15" t="s">
+        <v>571</v>
+      </c>
+      <c r="X15" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>574</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>576</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>579</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>581</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>582</v>
+      </c>
+      <c r="AJ15" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>583</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>585</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>586</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>587</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>588</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AR15" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="AS15" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>592</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>594</v>
+      </c>
+      <c r="AW15" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="S16" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="T16" t="s">
+        <v>595</v>
+      </c>
+      <c r="U16" t="s">
+        <v>596</v>
+      </c>
+      <c r="V16" t="s">
+        <v>597</v>
+      </c>
+      <c r="W16" t="s">
+        <v>598</v>
+      </c>
+      <c r="X16" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA16" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>606</v>
+      </c>
+      <c r="AF16" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>609</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>612</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>614</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>616</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>617</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>619</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>621</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>622</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="S17" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="T17" t="s">
+        <v>624</v>
+      </c>
+      <c r="U17" t="s">
+        <v>625</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="W17" t="s">
+        <v>627</v>
+      </c>
+      <c r="X17" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>629</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>635</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>637</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>639</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>640</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>641</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS17" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>649</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>650</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>651</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="E18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="F18" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="H18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="I18" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="S18" s="17" t="s">
+        <v>815</v>
+      </c>
+      <c r="T18" t="s">
+        <v>653</v>
+      </c>
+      <c r="U18" t="s">
+        <v>654</v>
+      </c>
+      <c r="V18" t="s">
+        <v>655</v>
+      </c>
+      <c r="W18" t="s">
+        <v>656</v>
+      </c>
+      <c r="X18" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>665</v>
+      </c>
+      <c r="AG18" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH18" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>668</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>669</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>670</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>671</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>672</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>673</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>674</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>675</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AR18" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>678</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>679</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>680</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>681</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>682</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1696,15 +5328,105 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="N19" t="s">
-        <v>152</v>
+      <c r="S19" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="T19" t="s">
+        <v>683</v>
+      </c>
+      <c r="U19" t="s">
+        <v>684</v>
+      </c>
+      <c r="V19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" t="s">
+        <v>685</v>
+      </c>
+      <c r="X19" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z19" s="18" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>690</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>698</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>699</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>700</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>701</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>702</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>703</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>704</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>705</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>706</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>707</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>708</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>709</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>710</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1712,326 +5434,652 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="N20" t="s">
-        <v>154</v>
+      <c r="S20" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="T20" t="s">
+        <v>711</v>
+      </c>
+      <c r="U20" t="s">
+        <v>712</v>
+      </c>
+      <c r="V20" t="s">
+        <v>713</v>
+      </c>
+      <c r="W20" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="X20" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>716</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>722</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>723</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>724</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>725</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>726</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>727</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>728</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>729</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>730</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>731</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>732</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>733</v>
+      </c>
+      <c r="AR20" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>735</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>736</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>737</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>738</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>739</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" ht="15" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
+      <c r="S21" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="T21" t="s">
+        <v>740</v>
+      </c>
+      <c r="U21" t="s">
+        <v>741</v>
+      </c>
+      <c r="V21" t="s">
+        <v>742</v>
+      </c>
+      <c r="W21" t="s">
+        <v>743</v>
+      </c>
+      <c r="X21" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>745</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>746</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>751</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>753</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>755</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>756</v>
+      </c>
+      <c r="AK21" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>758</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>759</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>760</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>761</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>762</v>
+      </c>
+      <c r="AQ21" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>764</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>765</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>766</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>767</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>768</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>769</v>
+      </c>
+      <c r="AX21" s="17" t="s">
+        <v>820</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>161</v>
+    <row r="22" spans="1:50" ht="15" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S22" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="T22" t="s">
+        <v>770</v>
+      </c>
+      <c r="U22" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" t="s">
+        <v>771</v>
+      </c>
+      <c r="W22" t="s">
+        <v>772</v>
+      </c>
+      <c r="X22" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>780</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>781</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>782</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>783</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>784</v>
+      </c>
+      <c r="AJ22" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="AK22" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL22" s="18" t="s">
+        <v>786</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>787</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>788</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>789</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>790</v>
+      </c>
+      <c r="AQ22" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>792</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>793</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>794</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>795</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>796</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>797</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N23" t="s">
-        <v>162</v>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" t="s">
+        <v>136</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>2</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>8</v>
+      </c>
+      <c r="AG24">
+        <v>8</v>
+      </c>
+      <c r="AH24">
+        <v>3</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>5</v>
+      </c>
+      <c r="AK24">
+        <v>6</v>
+      </c>
+      <c r="AL24">
+        <v>4</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>5</v>
+      </c>
+      <c r="AS24">
+        <v>3</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-      <c r="I24" t="s">
-        <v>166</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>168</v>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N25" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>170</v>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>173</v>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" t="s">
-        <v>176</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="O27" s="18"/>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="O28" s="18"/>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N29" t="s">
-        <v>184</v>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>187</v>
-      </c>
-      <c r="N31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>221</v>
+      <c r="B35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>199</v>
+      <c r="A42" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>200</v>
+      <c r="B43" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>201</v>
+      <c r="A44" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>202</v>
+      <c r="B45" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>203</v>
+      <c r="A46" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>204</v>
+      <c r="B47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>205</v>
+      <c r="A48" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>206</v>
+      <c r="B49" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>207</v>
+      <c r="A50" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>210</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>